--- a/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.54</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.76</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.12</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.76</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.12</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004005</t>
+          <t>090018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合A</t>
+          <t>大成新锐产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>21.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004006</t>
+          <t>001300</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合C</t>
+          <t>大成睿景灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>18.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4839</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009459</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信季安鑫3个月持有期债券C</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>675053</t>
+          <t>290006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得合赢债券C</t>
+          <t>泰信蓝筹精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>675093</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得祥逸债券C</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -762,25 +862,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005117</t>
+          <t>009459</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合A</t>
+          <t>创金合信季安鑫3个月持有期债券C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005118</t>
+          <t>009999</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合C</t>
+          <t>东方中国红利混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -818,26 +938,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005535</t>
+          <t>675053</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰信竞争优选灵活配置混合</t>
+          <t>西部利得合赢债券C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -846,25 +976,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>090018</t>
+          <t>002258</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成新锐产业混合</t>
+          <t>大成国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.66</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009999</t>
+          <t>005117</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方中国红利混合</t>
+          <t>金信价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>79.40</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>290006</t>
+          <t>005118</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰信蓝筹精选混合</t>
+          <t>金信价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001300</t>
+          <t>005515</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合A</t>
+          <t>银华中小市值量化优选股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>004005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>东方民丰回报赢安混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002258</t>
+          <t>005516</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成国企改革灵活配置混合</t>
+          <t>银华中小市值量化优选股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1014,26 +1204,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005515</t>
+          <t>004006</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1042,26 +1236,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005516</t>
+          <t>675093</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
+          <t>西部利得祥逸债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1212,7 +1213,6 @@
           <t>东方民丰回报赢安混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>28.63</t>
@@ -1244,7 +1244,6 @@
           <t>西部利得祥逸债券C</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>28.63</t>
@@ -1260,6 +1259,934 @@
       </c>
       <c r="H17" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7440</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003319</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003320</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2192,4 +2193,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源祥和债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003219</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源祥和债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3161,4 +3162,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3170,7 +3171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3181,17 +3182,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3201,14 +3222,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.42</v>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3217,14 +3260,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>2.14</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="4">
@@ -3233,14 +3366,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="5">
@@ -3249,13 +3382,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3303,7 +3304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3314,17 +3315,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3334,14 +3355,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3350,14 +3393,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.42</v>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3366,14 +3431,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.14</v>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3382,14 +3469,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.76</v>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3398,13 +3507,1609 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4992,7 +4993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5003,17 +5004,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5023,14 +5044,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.2</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>424.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5039,14 +5082,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2</v>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5055,14 +5120,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.42</v>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5071,14 +5158,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.14</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7996</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5087,14 +5196,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.76</v>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7180</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5103,13 +5234,3943 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4816</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4228</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3399</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>12.87</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>6.42</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>2.14</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -600,6 +617,1924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4402</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4643,7 +6578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6331,7 +8266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6463,7 +8398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7431,7 +9366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8359,7 +10294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9009,7 +10944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600096-云天化.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>4.48</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>12.87</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D4" t="n">
-        <v>4.2</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>6.42</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>2.14</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -616,7 +633,1183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6384</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013527</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013528</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2534,7 +3727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6578,7 +7771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8266,7 +9459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8398,7 +9591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9366,7 +10559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10294,7 +11487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10942,174 +12135,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000219</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时裕益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3125</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>